--- a/gantt_detection_anomalies.xlsx
+++ b/gantt_detection_anomalies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quentin\Documents\ISIMA\3A\projet_zz3\gantt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quentin\Documents\ISIMA\3A\anomalie_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233761B8-0449-4846-8C44-88E1B7B5A336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F7F50E-DD95-42DB-A4F1-A2CE0AEB9A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{54E3E719-1AB8-4DED-84F6-BB24D93244CA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
   <si>
     <t>Octobre</t>
   </si>
@@ -146,30 +146,18 @@
     <t>One Class SVM'</t>
   </si>
   <si>
-    <t>Robust Random Cut Forest'</t>
-  </si>
-  <si>
     <t>Local Outlier Factor'</t>
   </si>
   <si>
-    <t>Partial Identification Forest'</t>
-  </si>
-  <si>
     <t>Exploration des Auto-encodeur / Algorithmes 'profonds'</t>
   </si>
   <si>
     <t>AE Simple</t>
   </si>
   <si>
-    <t>AE épars</t>
-  </si>
-  <si>
     <t>AE variationnel</t>
   </si>
   <si>
-    <t>AE adversiaux</t>
-  </si>
-  <si>
     <t>Triplet Siamese network</t>
   </si>
   <si>
@@ -177,6 +165,15 @@
   </si>
   <si>
     <t>Interface graphique</t>
+  </si>
+  <si>
+    <t>anoGAN</t>
+  </si>
+  <si>
+    <t>GANormal</t>
+  </si>
+  <si>
+    <t>Exploration des données</t>
   </si>
 </sst>
 </file>
@@ -199,7 +196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,12 +206,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,8 +251,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -435,17 +438,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -571,22 +563,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -595,33 +646,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -936,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC02F9E9-D820-4901-94DA-34B115DD0F20}">
-  <dimension ref="A3:Y37"/>
+  <dimension ref="A3:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="63" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -956,48 +1008,48 @@
     <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="10" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="22" t="s">
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="10" t="s">
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="22" t="s">
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="12"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="27"/>
     </row>
     <row r="6" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1009,7 +1061,7 @@
       <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -1036,10 +1088,10 @@
       <c r="O6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="23" t="s">
+      <c r="P6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="Q6" s="15" t="s">
         <v>24</v>
       </c>
       <c r="R6" s="4" t="s">
@@ -1048,10 +1100,10 @@
       <c r="S6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="T6" s="23" t="s">
+      <c r="T6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="U6" s="24" t="s">
+      <c r="U6" s="15" t="s">
         <v>28</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1065,175 +1117,174 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="14"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="8"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="25"/>
+      <c r="A8" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="16"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="25"/>
+      <c r="A9" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="16"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="15"/>
+      <c r="A10" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="9"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="15"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="9"/>
     </row>
     <row r="12" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="19"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="24"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -1243,48 +1294,48 @@
     <row r="19" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="10" t="s">
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="22" t="s">
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="10" t="s">
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="22" t="s">
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="12"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="27"/>
     </row>
     <row r="21" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -1296,7 +1347,7 @@
       <c r="F21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -1323,10 +1374,10 @@
       <c r="O21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="P21" s="23" t="s">
+      <c r="P21" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Q21" s="24" t="s">
+      <c r="Q21" s="15" t="s">
         <v>24</v>
       </c>
       <c r="R21" s="4" t="s">
@@ -1335,10 +1386,10 @@
       <c r="S21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="T21" s="23" t="s">
+      <c r="T21" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="U21" s="24" t="s">
+      <c r="U21" s="15" t="s">
         <v>28</v>
       </c>
       <c r="V21" s="4" t="s">
@@ -1352,453 +1403,425 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="8"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A23" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="14"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A23" s="26" t="s">
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A24" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="25"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A24" s="26" t="s">
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="16"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A25" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="15"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A25" s="27" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="9"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A26" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="15"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A26" s="26" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="9"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A27" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="15"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A27" s="26" t="s">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="9"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="15"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="9"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="15"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="9"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="9"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="9"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="15"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="9"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A33" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="15"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="9"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A34" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="15"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="15"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="15"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="15"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="9"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A35" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="15"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A36" s="28" t="s">
+      <c r="A35" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="16"/>
-      <c r="X36" s="15"/>
-    </row>
-    <row r="37" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="9" t="s">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="9"/>
+    </row>
+    <row r="36" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="17"/>
-      <c r="W37" s="17"/>
-      <c r="X37" s="18"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="12">
